--- a/Spreadsheet_example.xlsx
+++ b/Spreadsheet_example.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (HarrodLab)\Articulos en prep\R Package Trophic Position\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (HarrodLab)\GitHub\clquezada\tRophicPosition\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,12 +25,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
-  <si>
-    <t>dCsc</t>
-  </si>
-  <si>
-    <t>dNsc</t>
-  </si>
   <si>
     <t>dCb1</t>
   </si>
@@ -74,6 +68,12 @@
   </si>
   <si>
     <t>Rainbow trout example: copy to the clipboard the cells below</t>
+  </si>
+  <si>
+    <t>dCc</t>
+  </si>
+  <si>
+    <t>dNc</t>
   </si>
 </sst>
 </file>
@@ -461,40 +461,40 @@
   <dimension ref="A2:H60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -841,33 +841,33 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="E26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="3" t="s">
+      <c r="F26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="H26" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
